--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>581.5855868315678</v>
+        <v>3702.70008447089</v>
       </c>
       <c r="R2">
-        <v>581.5855868315678</v>
+        <v>33324.30076023801</v>
       </c>
       <c r="S2">
-        <v>0.0008675226166757734</v>
+        <v>0.004585417998302734</v>
       </c>
       <c r="T2">
-        <v>0.0008675226166757734</v>
+        <v>0.004585417998302734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>14863.12100280398</v>
+        <v>28399.99526862559</v>
       </c>
       <c r="R3">
-        <v>14863.12100280398</v>
+        <v>255599.9574176303</v>
       </c>
       <c r="S3">
-        <v>0.02217058661059184</v>
+        <v>0.03517050975925245</v>
       </c>
       <c r="T3">
-        <v>0.02217058661059184</v>
+        <v>0.03517050975925244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>8311.049999244735</v>
+        <v>17404.61684833888</v>
       </c>
       <c r="R4">
-        <v>8311.049999244735</v>
+        <v>156641.5516350499</v>
       </c>
       <c r="S4">
-        <v>0.01239718453469182</v>
+        <v>0.02155385030633407</v>
       </c>
       <c r="T4">
-        <v>0.01239718453469182</v>
+        <v>0.02155385030633407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>2468.368028560481</v>
+        <v>4722.101443741248</v>
       </c>
       <c r="R5">
-        <v>2468.368028560481</v>
+        <v>42498.91299367123</v>
       </c>
       <c r="S5">
-        <v>0.003681943190376495</v>
+        <v>0.005847843048578047</v>
       </c>
       <c r="T5">
-        <v>0.003681943190376495</v>
+        <v>0.005847843048578047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>297.7967510984079</v>
+        <v>999.8105972719852</v>
       </c>
       <c r="R6">
-        <v>297.7967510984079</v>
+        <v>8998.295375447868</v>
       </c>
       <c r="S6">
-        <v>0.0004442087675485223</v>
+        <v>0.001238163881231524</v>
       </c>
       <c r="T6">
-        <v>0.0004442087675485223</v>
+        <v>0.001238163881231524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>7610.555086021067</v>
+        <v>7668.624404966803</v>
       </c>
       <c r="R7">
-        <v>7610.555086021067</v>
+        <v>69017.61964470122</v>
       </c>
       <c r="S7">
-        <v>0.01135229072396563</v>
+        <v>0.009496812479151477</v>
       </c>
       <c r="T7">
-        <v>0.01135229072396563</v>
+        <v>0.009496812479151476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>4255.613866696958</v>
+        <v>4699.629991478062</v>
       </c>
       <c r="R8">
-        <v>4255.613866696958</v>
+        <v>42296.66992330256</v>
       </c>
       <c r="S8">
-        <v>0.006347889907849179</v>
+        <v>0.005820014437212043</v>
       </c>
       <c r="T8">
-        <v>0.006347889907849179</v>
+        <v>0.005820014437212043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>1263.910241354342</v>
+        <v>1275.071422783218</v>
       </c>
       <c r="R9">
-        <v>1263.910241354342</v>
+        <v>11475.64280504897</v>
       </c>
       <c r="S9">
-        <v>0.001885312746136837</v>
+        <v>0.001579046457387362</v>
       </c>
       <c r="T9">
-        <v>0.001885312746136837</v>
+        <v>0.001579046457387362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>13844.47267273083</v>
+        <v>49876.01480207703</v>
       </c>
       <c r="R10">
-        <v>13844.47267273083</v>
+        <v>448884.1332186933</v>
       </c>
       <c r="S10">
-        <v>0.02065111899518583</v>
+        <v>0.06176637878834273</v>
       </c>
       <c r="T10">
-        <v>0.02065111899518583</v>
+        <v>0.06176637878834272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>353812.1941361051</v>
+        <v>382552.8808929445</v>
       </c>
       <c r="R11">
-        <v>353812.1941361051</v>
+        <v>3442975.9280365</v>
       </c>
       <c r="S11">
-        <v>0.5277642490092231</v>
+        <v>0.4737528898724557</v>
       </c>
       <c r="T11">
-        <v>0.5277642490092231</v>
+        <v>0.4737528898724555</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>197842.0841257304</v>
+        <v>234443.2192045269</v>
       </c>
       <c r="R12">
-        <v>197842.0841257304</v>
+        <v>2109988.972840742</v>
       </c>
       <c r="S12">
-        <v>0.2951113067371258</v>
+        <v>0.2903341162923514</v>
       </c>
       <c r="T12">
-        <v>0.2951113067371258</v>
+        <v>0.2903341162923514</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>58758.76997540677</v>
+        <v>63607.52859587956</v>
       </c>
       <c r="R13">
-        <v>58758.76997540677</v>
+        <v>572467.757362916</v>
       </c>
       <c r="S13">
-        <v>0.08764756733298726</v>
+        <v>0.07877146401199295</v>
       </c>
       <c r="T13">
-        <v>0.08764756733298726</v>
+        <v>0.07877146401199295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>143.9023296704122</v>
+        <v>555.9480596974338</v>
       </c>
       <c r="R14">
-        <v>143.9023296704122</v>
+        <v>5003.532537276904</v>
       </c>
       <c r="S14">
-        <v>0.0002146520278494626</v>
+        <v>0.0006884852083347659</v>
       </c>
       <c r="T14">
-        <v>0.0002146520278494626</v>
+        <v>0.0006884852083347657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>3677.597565869787</v>
+        <v>4264.164502879231</v>
       </c>
       <c r="R15">
-        <v>3677.597565869787</v>
+        <v>38377.48052591307</v>
       </c>
       <c r="S15">
-        <v>0.005485691419563636</v>
+        <v>0.005280734656644531</v>
       </c>
       <c r="T15">
-        <v>0.005485691419563636</v>
+        <v>0.005280734656644528</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>2056.41178870026</v>
+        <v>2613.245130814844</v>
       </c>
       <c r="R16">
-        <v>2056.41178870026</v>
+        <v>23519.20617733359</v>
       </c>
       <c r="S16">
-        <v>0.003067448327966929</v>
+        <v>0.003236238686214764</v>
       </c>
       <c r="T16">
-        <v>0.003067448327966929</v>
+        <v>0.003236238686214763</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>610.750881446252</v>
+        <v>709.0077714780782</v>
       </c>
       <c r="R17">
-        <v>610.750881446252</v>
+        <v>6381.069943302704</v>
       </c>
       <c r="S17">
-        <v>0.0009110270522621015</v>
+        <v>0.0008780341162135114</v>
       </c>
       <c r="T17">
-        <v>0.0009110270522621015</v>
+        <v>0.0008780341162135112</v>
       </c>
     </row>
   </sheetData>
